--- a/NDP500vsNDP100.xlsx
+++ b/NDP500vsNDP100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewang/Documents/Githubs/IQ/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719761E7-080B-A945-A522-F8717019B73D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70527A-DF4B-2D46-811E-0C66CE61DBCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26540" yWindow="500" windowWidth="33820" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>Model</t>
   </si>
@@ -145,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Capacitive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4096 levels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Connection type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,26 +153,6 @@
   </si>
   <si>
     <t>Remote control &amp; centralized management</t>
-  </si>
-  <si>
-    <t>LAN switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I/O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10M / 100M RJ45 *3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Identification height</t>
@@ -196,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Feature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Compatible operating systems</t>
   </si>
   <si>
@@ -256,9 +224,6 @@
   </si>
   <si>
     <t>Built-in PC</t>
-  </si>
-  <si>
-    <t>8GB</t>
   </si>
   <si>
     <t>512 SSD</t>
@@ -324,10 +289,6 @@
 Power output and control for display or others (Display port) * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5mm audio in  *1; 
-3.5mm audio out  *1； </t>
-  </si>
-  <si>
     <t>Networked AV Decoder-Media Content</t>
   </si>
   <si>
@@ -355,9 +316,6 @@
   </si>
   <si>
     <t>25 kg</t>
-  </si>
-  <si>
-    <t>Product Size (mm)</t>
   </si>
   <si>
     <t>716(L) *  350(W) * 242(H)</t>
@@ -446,12 +404,67 @@
     <t>6H tempered explosion-proof glass
 Full Lamination technology；</t>
   </si>
+  <si>
+    <t>4096 levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 GB </t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>1TB SSD</t>
+  </si>
+  <si>
+    <t>CPU Integrated Graphics, HD Graphics</t>
+  </si>
+  <si>
+    <t>Serials Control</t>
+  </si>
+  <si>
+    <t>Overiew</t>
+  </si>
+  <si>
+    <t>870(L) x 609(W) x 1212(H) (closed) 
+2162(L) x 609(W) x 1212(H) (fully extended)</t>
+  </si>
+  <si>
+    <t>Dimensions (mm)</t>
+  </si>
+  <si>
+    <t>90 kg</t>
+  </si>
+  <si>
+    <t>Gross Weight</t>
+  </si>
+  <si>
+    <t>131 kg</t>
+  </si>
+  <si>
+    <t>28 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sliding Cover </t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Control the automatic up and down movement of the Digital Podium’s Display. (12 ~35)</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Adjustable ????</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +543,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -551,64 +571,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -668,108 +636,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,611 +989,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99E4D2E-7375-4123-BA96-115F93E5C1ED}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D26" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="8" t="s">
+      <c r="C43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="67.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="8" t="s">
+      <c r="C51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="204" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="1" t="s">
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="67.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="34" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="136" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="68" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>98</v>
-      </c>
+      <c r="D62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A35:A40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NDP500vsNDP100.xlsx
+++ b/NDP500vsNDP100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewang/Documents/Githubs/IQ/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70527A-DF4B-2D46-811E-0C66CE61DBCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A355D2C0-98E8-A246-A1F8-3A8FD1A852DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26540" yWindow="500" windowWidth="33820" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27460" yWindow="860" windowWidth="33820" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
   <si>
     <t>Model</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>Adjustable ????</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Reinforced steel plate structure with powder-coated anti-rust paint on the metal surface</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -663,6 +669,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -706,6 +715,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -989,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99E4D2E-7375-4123-BA96-115F93E5C1ED}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -1004,718 +1016,727 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D22" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D32" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D33" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D34" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="3" t="s">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D35" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D36" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D38" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D41" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="14"/>
-    </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="1" t="s">
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" ht="67.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="67.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4" ht="34" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:4" ht="204" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
       <c r="B55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4" ht="204" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="14"/>
-    </row>
-    <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="3" t="s">
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="14"/>
-    </row>
-    <row r="62" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D63" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A36:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
